--- a/layout.xlsx
+++ b/layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo.pedrica\Desktop\gerador_placa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\linea-identificador-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/layout.xlsx
+++ b/layout.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>CODIGO</t>
-  </si>
-  <si>
-    <t>VOL</t>
   </si>
   <si>
     <t xml:space="preserve">IDENTIFICAÇÃO DE MATERIAIS </t>
@@ -80,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,30 +114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -155,15 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,34 +497,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="213.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="206.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
